--- a/data/resultofgreedyalgo_new.xlsx
+++ b/data/resultofgreedyalgo_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nightraven/Coding/optimization/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB43C01-76FC-0542-AA45-9051C2166502}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018E1558-C557-E34B-B162-AB3E58EBDDB6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{C67B9AE1-8486-3346-A5B8-608FB9B572BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{C67B9AE1-8486-3346-A5B8-608FB9B572BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>MOVE COMBINATION 1 VM</t>
   </si>
@@ -319,13 +319,16 @@
   </si>
   <si>
     <t>execute time = 0.6567151546478271</t>
+  </si>
+  <si>
+    <t>Result of GREEDY ALGORITHMS for Optimization Relocate VM in Servers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -368,6 +371,13 @@
       <color theme="1"/>
       <name val="Monaco"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -435,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -460,6 +470,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -825,16 +836,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA98730A-AFEC-CC45-935D-048DF8613F82}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N3" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="8" max="8" width="33.83203125" customWidth="1"/>
     <col min="13" max="13" width="19.5" customWidth="1"/>
@@ -843,1135 +854,1138 @@
     <col min="20" max="20" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:23" ht="37" x14ac:dyDescent="0.45">
+      <c r="A1" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S2" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>4.032</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>8.5850000000000009</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>4.2480000000000002</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>3.722</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>3.415</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>3.3290000000000002</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="O3">
+      <c r="O4">
         <v>3.722</v>
       </c>
-      <c r="P3">
+      <c r="P4">
         <v>3.415</v>
       </c>
-      <c r="Q3">
+      <c r="Q4">
         <v>3.3290000000000002</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="U3">
+      <c r="U4">
         <v>2.11</v>
       </c>
-      <c r="V3">
+      <c r="V4">
         <v>2.1680000000000001</v>
       </c>
-      <c r="W3">
+      <c r="W4">
         <v>2.1059999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>2.9990000000000001</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>2.5670000000000002</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>3.4220000000000002</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O4">
+      <c r="O5">
         <v>2.9990000000000001</v>
       </c>
-      <c r="P4">
+      <c r="P5">
         <v>2.5670000000000002</v>
       </c>
-      <c r="Q4">
+      <c r="Q5">
         <v>3.4220000000000002</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="U4">
+      <c r="U5">
         <v>3.722</v>
       </c>
-      <c r="V4">
+      <c r="V5">
         <v>3.415</v>
       </c>
-      <c r="W4">
+      <c r="W5">
         <v>3.3290000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0.64900000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.97</v>
-      </c>
-      <c r="E5">
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="G5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="P5">
-        <v>0.62</v>
-      </c>
-      <c r="Q5">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U5">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="V5">
-        <v>0.68500000000000005</v>
-      </c>
-      <c r="W5">
-        <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.97</v>
+      </c>
+      <c r="E6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="P6">
+        <v>0.62</v>
+      </c>
+      <c r="Q6">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="V6">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="W6">
+        <v>0.69199999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.47799999999999998</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.51100000000000001</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>0.47099999999999997</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>0.62</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M7" t="s">
         <v>30</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U6">
+      <c r="U7">
         <v>0.47099999999999997</v>
       </c>
-      <c r="V6">
+      <c r="V7">
         <v>0.62</v>
       </c>
-      <c r="W6">
+      <c r="W7">
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>0.248</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>0.24299999999999999</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>0.47099999999999997</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>0.62</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>0.41399999999999998</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>0.125</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>0.13400000000000001</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M9" t="s">
         <v>40</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U8">
+      <c r="U9">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="V8">
+      <c r="V9">
         <v>0.10100000000000001</v>
       </c>
-      <c r="W8">
+      <c r="W9">
         <v>0.151</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>0.16400000000000001</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>0.19900000000000001</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O9">
+      <c r="O10">
         <v>0.41199999999999998</v>
       </c>
-      <c r="P9">
+      <c r="P10">
         <v>0.27700000000000002</v>
       </c>
-      <c r="Q9">
+      <c r="Q10">
         <v>0.26500000000000001</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>0.41199999999999998</v>
       </c>
-      <c r="V9">
+      <c r="V10">
         <v>0.27700000000000002</v>
       </c>
-      <c r="W9">
+      <c r="W10">
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>0.151</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>0.125</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>0.13400000000000001</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>0.13800000000000001</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>0.41399999999999998</v>
       </c>
-      <c r="P10">
+      <c r="P11">
         <v>0.248</v>
       </c>
-      <c r="Q10">
+      <c r="Q11">
         <v>0.24299999999999999</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="U10">
+      <c r="U11">
         <v>0.41399999999999998</v>
       </c>
-      <c r="V10">
+      <c r="V11">
         <v>0.248</v>
       </c>
-      <c r="W10">
+      <c r="W11">
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="O11">
+      <c r="O12">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="P11">
+      <c r="P12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="Q11">
+      <c r="Q12">
         <v>3.1E-2</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U11">
+      <c r="U12">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="V11">
+      <c r="V12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="W11">
+      <c r="W12">
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>1.9E-2</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.02</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2.3E-2</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M13" t="s">
         <v>30</v>
       </c>
-      <c r="S12" s="13" t="s">
+      <c r="S13" s="13" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.151</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O13">
+      <c r="O14">
         <v>2.4E-2</v>
       </c>
-      <c r="P13">
+      <c r="P14">
         <v>2.3E-2</v>
       </c>
-      <c r="Q13">
+      <c r="Q14">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="T14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U13">
+      <c r="U14">
         <v>2.4E-2</v>
       </c>
-      <c r="V13">
+      <c r="V14">
         <v>2.3E-2</v>
       </c>
-      <c r="W13">
+      <c r="W14">
         <v>2.1999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1.4E-2</v>
-      </c>
-      <c r="E14">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="P14">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="Q14">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U14">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="V14">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="W14">
-        <v>0.13600000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="P15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U15">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="V15">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="W15">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>0.01</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>2.4E-2</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>2.3E-2</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M15" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N16" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O15">
+      <c r="O16">
         <v>0.16400000000000001</v>
       </c>
-      <c r="P15">
+      <c r="P16">
         <v>0.19900000000000001</v>
       </c>
-      <c r="Q15">
+      <c r="Q16">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="U15">
-        <v>0.125</v>
-      </c>
-      <c r="V15">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="W15">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="D16">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J16">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="M16" t="s">
-        <v>66</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="U16">
         <v>0.125</v>
       </c>
       <c r="V16">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="W16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J17">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U17">
+        <v>0.125</v>
+      </c>
+      <c r="V17">
         <v>0.13400000000000001</v>
       </c>
-      <c r="W16">
+      <c r="W17">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G17" t="s">
+    <row r="18" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O17">
+      <c r="O18">
         <v>0.16400000000000001</v>
       </c>
-      <c r="P17">
+      <c r="P18">
         <v>0.19900000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q18">
         <v>0.11899999999999999</v>
       </c>
-      <c r="S17" s="13" t="s">
+      <c r="S18" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G18" s="1" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>3.1E-2</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>67</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="U18">
+      <c r="U19">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="V18">
+      <c r="V19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="W18">
+      <c r="W19">
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
+    <row r="20" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>7.8E-2</v>
       </c>
-      <c r="S19" s="13" t="s">
+      <c r="S20" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="J21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K21">
+        <v>6.3E-2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="U21">
+        <v>0.125</v>
+      </c>
+      <c r="V21">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="W21">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J22">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K22">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="P22">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="Q22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="V23">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="W23">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J24">
+        <v>2.3E-2</v>
+      </c>
+      <c r="K24">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="P24">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q24">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U24">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="V24">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="W24">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="G26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="K26">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="P26">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T26" t="s">
+        <v>91</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="W26">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+      <c r="N27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="G20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="J20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K20">
-        <v>6.3E-2</v>
-      </c>
-      <c r="M20" t="s">
-        <v>68</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="U20">
-        <v>0.125</v>
-      </c>
-      <c r="V20">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="W20">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B29" s="2"/>
+      <c r="G29" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" t="s">
+        <v>75</v>
+      </c>
+      <c r="S29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21">
-        <v>2.4E-2</v>
-      </c>
-      <c r="J21">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K21">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="P21">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="Q21">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="G30" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="M30" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" t="s">
+        <v>92</v>
+      </c>
+      <c r="T30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G22" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" t="s">
-        <v>40</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="U22">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="V22">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="W22">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S31" t="s">
+        <v>24</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C32" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23">
-        <v>2.4E-2</v>
-      </c>
-      <c r="J23">
-        <v>2.3E-2</v>
-      </c>
-      <c r="K23">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O23">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="P23">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="Q23">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U23">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="V23">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="W23">
-        <v>4.2999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32" t="s">
+        <v>96</v>
+      </c>
+      <c r="U32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
-        <v>32</v>
-      </c>
-      <c r="M24" t="s">
-        <v>33</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="J25">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="K25">
-        <v>2.4E-2</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="P25">
-        <v>3.1E-2</v>
-      </c>
-      <c r="S25" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="T25" t="s">
-        <v>91</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="W25">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M26" s="3"/>
-      <c r="N26" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q26">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G27" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G28" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" t="s">
-        <v>60</v>
-      </c>
-      <c r="M28" t="s">
-        <v>75</v>
-      </c>
-      <c r="S28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G29" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" t="s">
-        <v>60</v>
-      </c>
-      <c r="S29" t="s">
-        <v>92</v>
-      </c>
-      <c r="T29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="17" x14ac:dyDescent="0.2">
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" t="s">
-        <v>64</v>
-      </c>
-      <c r="M30" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s">
-        <v>24</v>
-      </c>
-      <c r="T30" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>63</v>
       </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O31" t="s">
-        <v>64</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31" t="s">
-        <v>96</v>
-      </c>
-      <c r="U31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>79</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S33" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G3:H4 G27 H2:K2 G6:H10 H5 G12:H13 H11 G15:H16 H14 G18:H18 H17 G20:H21 H19 G25:H25 H24 G23:H23 H22">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="G29 G4:H5 H3:K3 G7:H11 H6 G13:H14 H12 G16:H17 H15 G19:H19 H18 G21:H22 H20 G26:H26 H25 G24:H24 H23">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:N5 M7:N7 M9:N11 M13:N15 M17:N17 M19:N19 M21:N21 M23:N23 M25:N26">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="M4:N6 M8:N8 M10:N12 M14:N16 M18:N18 M20:N20 M22:N22 M24:N24 M26:N27">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T6 S8:T11 S13:T16 S18:T18 S20:T20 S22:T23 S25:T25">
+  <conditionalFormatting sqref="S4:T7 S9:T12 S14:T17 S19:T19 S21:T21 S23:T24 S26:T26">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
